--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1855042.086168287</v>
+        <v>1852665.45922092</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2089455706009</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431393</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>67.22331801800679</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>328.4528833267056</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>311.0096761768081</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>11.95845526090705</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>267.4083398772234</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>243.6879649877615</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.8284992587533</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>65.49346573995629</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>86.80636739625207</v>
+        <v>117.8112368377101</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465622</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.5520862197295</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>214.4033048062049</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>132.631533721667</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>134.3542165280277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>91.89996056624805</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>60.86846495359832</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.93623887464</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419834261</v>
       </c>
       <c r="I40" t="n">
-        <v>66.25628701154761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>66.2562870115476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514047</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>100.2041656279966</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.78477319198</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.78477319198</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.78477319198</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.0604424885604</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.9438030762247</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>758.6984582168175</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>530.7089073188001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>530.7089073188001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1176.100419978354</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>343.3111199322559</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0146769637277</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1001.276695922948</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1624.366872336208</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1624.366872336208</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1401.388391530943</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1401.388391530943</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1401.388391530943</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1401.388391530943</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.398840632926</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.6062614893956</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.050536840746</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>2316.189868816558</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1926.050536840746</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680034</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500117</v>
+        <v>129.083478590917</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310617</v>
+        <v>575.6256845144198</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507743</v>
+        <v>870.3292415458916</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>372.4964262156755</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876677</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>615.644930552582</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>465.5282911402463</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179074</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2312.991837396758</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396758</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740956</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535069</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,19 +5829,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647281</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368213</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244855</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420924</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>186.644906044182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2385.479785647333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,25 +6947,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>741.843151638084</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>741.843151638084</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>591.7265122257483</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>443.8134186433551</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>443.8134186433551</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7090,55 +7090,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683237</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219839</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395908</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4540366416804</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="G40" t="n">
-        <v>302.4540366416804</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="H40" t="n">
-        <v>160.7422054838785</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797786</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>84.94186588374686</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>45.44676101130761</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.64270034434914</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143847</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.281304257877447e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-5.365095663491838e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.44045370237576</v>
+        <v>49.43558426091775</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642683967</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>72.11969353038609</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.39475227997764</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.89260457060016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62417772602079</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>120.1578210480463</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>40.5878994176288</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241845</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788125</v>
       </c>
       <c r="I40" t="n">
-        <v>15.00954930701791</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.769998990097</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>125.5054897610405</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.03431688</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873782.03431688</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>873782.0343168798</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
@@ -26335,25 +26335,25 @@
         <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907544</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707323</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707341</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889979</v>
+        <v>-785396.0881889978</v>
       </c>
       <c r="C6" t="n">
         <v>329355.6953869218</v>
       </c>
       <c r="D6" t="n">
-        <v>329355.6953869219</v>
+        <v>329355.6953869215</v>
       </c>
       <c r="E6" t="n">
-        <v>-70681.44115440642</v>
+        <v>-70716.17907984192</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701396</v>
+        <v>436769.2625447041</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701395</v>
+        <v>436769.2625447038</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="J6" t="n">
-        <v>269198.8226601572</v>
+        <v>269164.0847347213</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701397</v>
+        <v>436769.2625447036</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.00047014</v>
+        <v>436769.2625447036</v>
       </c>
       <c r="M6" t="n">
-        <v>304196.7067412132</v>
+        <v>304161.968815777</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.262544704</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447039</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701396</v>
+        <v>436769.2625447037</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,22 +26978,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>58.72142450166092</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08655370166485</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>184.9143253058212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>26.23015829397735</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>58.72142450166098</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>89.59911715866657</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>97.86455189378415</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.0431356907075</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3986548624473</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.0295325966347</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.414833124131992e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-7.638832417924158e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685828</v>
       </c>
       <c r="L12" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>198.560797075695</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>472.0729312464047</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884141</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817553</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,31 +34205,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>556.5325452335035</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>272.9327299394441</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>476.1389654766209</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>232.0342572547925</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>78.62292123526659</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>484.129373252235</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942239</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125056</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>340.7312191630714</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.7852262023926</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37704,7 +37704,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191354</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010452</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367747</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>425.1908331501702</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>130.3364854949997</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
